--- a/Data/test.xlsx
+++ b/Data/test.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/martinoestergaard/OneDrive/Documents/Skole/AU/ITKO/1. semester/DTIV/DTIV Test/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/martinoestergaard/PycharmProjects/PreviewRecipe/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7596F269-9DF8-234D-AD24-08A05DDC9287}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD66FE74-84CD-5343-BB6C-953E488C0A46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="280" yWindow="500" windowWidth="28240" windowHeight="16340" xr2:uid="{AB5F43CE-F6A6-6342-9C2C-42983A56E8E8}"/>
   </bookViews>
@@ -36,18 +36,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>test123</t>
   </si>
   <si>
-    <t>test124</t>
+    <t>https://github.com/moestergaard/PreviewRecipe/blob/1f3ced3d6d066aa72005051d17a6839390de00e2/Data/pandekager.jpeg</t>
   </si>
   <si>
-    <t>test125</t>
+    <t>https://github.com/moestergaard/PreviewRecipe/blob/9f00694d6f0a79d43c26ae74f2a3fb6ec23c8178/Data/stegt-flaesk-med-persillesovs.jpeg</t>
   </si>
   <si>
-    <t>/Users/martinoestergaard/OneDrive/Documents/Skole/AU/ITKO/1. semester/DTIV/DTIV Test/pandekager.jpeg</t>
+    <t>Pandekager</t>
+  </si>
+  <si>
+    <t>Stegt Flæsk</t>
   </si>
 </sst>
 </file>
@@ -402,7 +405,7 @@
   <dimension ref="A2:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -420,7 +423,10 @@
         <v>124</v>
       </c>
       <c r="B3" t="s">
-        <v>1</v>
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -428,10 +434,10 @@
         <v>125</v>
       </c>
       <c r="B4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Data/test.xlsx
+++ b/Data/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/martinoestergaard/PycharmProjects/PreviewRecipe/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD66FE74-84CD-5343-BB6C-953E488C0A46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F958030-AB22-8949-ADBE-B5D8911806B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="280" yWindow="500" windowWidth="28240" windowHeight="16340" xr2:uid="{AB5F43CE-F6A6-6342-9C2C-42983A56E8E8}"/>
   </bookViews>
@@ -41,16 +41,16 @@
     <t>test123</t>
   </si>
   <si>
-    <t>https://github.com/moestergaard/PreviewRecipe/blob/1f3ced3d6d066aa72005051d17a6839390de00e2/Data/pandekager.jpeg</t>
-  </si>
-  <si>
-    <t>https://github.com/moestergaard/PreviewRecipe/blob/9f00694d6f0a79d43c26ae74f2a3fb6ec23c8178/Data/stegt-flaesk-med-persillesovs.jpeg</t>
-  </si>
-  <si>
     <t>Pandekager</t>
   </si>
   <si>
     <t>Stegt Flæsk</t>
+  </si>
+  <si>
+    <t>https://github.com/moestergaard/PreviewRecipe/blob/13b23ec728c8d34c2360c51248c89316593d052f/Data/pandekager.jpeg</t>
+  </si>
+  <si>
+    <t>https://github.com/moestergaard/PreviewRecipe/blob/13b23ec728c8d34c2360c51248c89316593d052f/Data/stegt-flaesk-med-persillesovs.jpeg</t>
   </si>
 </sst>
 </file>
@@ -405,7 +405,7 @@
   <dimension ref="A2:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -423,10 +423,10 @@
         <v>124</v>
       </c>
       <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
         <v>4</v>
-      </c>
-      <c r="C3" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -434,10 +434,10 @@
         <v>125</v>
       </c>
       <c r="B4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
         <v>3</v>
-      </c>
-      <c r="C4" t="s">
-        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Data/test.xlsx
+++ b/Data/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/martinoestergaard/PycharmProjects/PreviewRecipe/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F958030-AB22-8949-ADBE-B5D8911806B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A931DBFB-B6E9-834C-A117-4CC22F49A168}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="280" yWindow="500" windowWidth="28240" windowHeight="16340" xr2:uid="{AB5F43CE-F6A6-6342-9C2C-42983A56E8E8}"/>
   </bookViews>
@@ -47,10 +47,10 @@
     <t>Stegt Flæsk</t>
   </si>
   <si>
-    <t>https://github.com/moestergaard/PreviewRecipe/blob/13b23ec728c8d34c2360c51248c89316593d052f/Data/pandekager.jpeg</t>
+    <t>https://madsvin.com/wp-content/uploads/2023/06/stegt-flaesk-med-persillesovs.jpg</t>
   </si>
   <si>
-    <t>https://github.com/moestergaard/PreviewRecipe/blob/13b23ec728c8d34c2360c51248c89316593d052f/Data/stegt-flaesk-med-persillesovs.jpeg</t>
+    <t>https://madensverden.dk/wp-content/uploads/2022/06/pandekager.jpeg</t>
   </si>
 </sst>
 </file>
@@ -405,7 +405,7 @@
   <dimension ref="A2:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -426,7 +426,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -437,7 +437,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Data/test.xlsx
+++ b/Data/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/martinoestergaard/PycharmProjects/PreviewRecipe/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A931DBFB-B6E9-834C-A117-4CC22F49A168}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A69C783-6117-9640-9846-0710F3645B72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="280" yWindow="500" windowWidth="28240" windowHeight="16340" xr2:uid="{AB5F43CE-F6A6-6342-9C2C-42983A56E8E8}"/>
   </bookViews>
@@ -47,20 +47,28 @@
     <t>Stegt Flæsk</t>
   </si>
   <si>
-    <t>https://madsvin.com/wp-content/uploads/2023/06/stegt-flaesk-med-persillesovs.jpg</t>
+    <t>https://madensverden.dk/wp-content/uploads/2022/06/pandekager.jpeg</t>
   </si>
   <si>
-    <t>https://madensverden.dk/wp-content/uploads/2022/06/pandekager.jpeg</t>
+    <t>https://github.com/moestergaard/PreviewRecipe/raw/af557301eff8106ebdc936933fac4ef6c4236456/Data/stegt-flaesk-med-persillesovs.jpeg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -83,13 +91,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Link" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -405,7 +416,7 @@
   <dimension ref="A2:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -425,8 +436,8 @@
       <c r="B3" t="s">
         <v>2</v>
       </c>
-      <c r="C3" t="s">
-        <v>3</v>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -437,10 +448,13 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C3" r:id="rId1" xr:uid="{C7282BE2-57A8-5C41-8F1F-C4A3DE42FEFF}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Data/test.xlsx
+++ b/Data/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/martinoestergaard/PycharmProjects/PreviewRecipe/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A69C783-6117-9640-9846-0710F3645B72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB883ABA-3CEF-1641-AA1F-B376F0B58488}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="280" yWindow="500" windowWidth="28240" windowHeight="16340" xr2:uid="{AB5F43CE-F6A6-6342-9C2C-42983A56E8E8}"/>
   </bookViews>
@@ -47,10 +47,10 @@
     <t>Stegt Flæsk</t>
   </si>
   <si>
-    <t>https://madensverden.dk/wp-content/uploads/2022/06/pandekager.jpeg</t>
+    <t>https://github.com/moestergaard/PreviewRecipe/raw/5044e01f1c2a93e7feb1453aa11845c6ae4cd15e/Data/pandekager.jpeg</t>
   </si>
   <si>
-    <t>https://github.com/moestergaard/PreviewRecipe/raw/af557301eff8106ebdc936933fac4ef6c4236456/Data/stegt-flaesk-med-persillesovs.jpeg</t>
+    <t>https://github.com/moestergaard/PreviewRecipe/blob/5044e01f1c2a93e7feb1453aa11845c6ae4cd15e/Data/stegt-flaesk-med-persillesovs.jpeg</t>
   </si>
 </sst>
 </file>
@@ -416,7 +416,7 @@
   <dimension ref="A2:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -447,13 +447,13 @@
       <c r="B4" t="s">
         <v>1</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="1" t="s">
         <v>3</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C3" r:id="rId1" xr:uid="{C7282BE2-57A8-5C41-8F1F-C4A3DE42FEFF}"/>
+    <hyperlink ref="C4" r:id="rId1" xr:uid="{86FF66A1-3DEC-D24B-98AB-E8CEFC9A9A3B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Data/test.xlsx
+++ b/Data/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/martinoestergaard/PycharmProjects/PreviewRecipe/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB883ABA-3CEF-1641-AA1F-B376F0B58488}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{882056D0-68CF-6B4B-8CF3-4CEA48C01875}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="280" yWindow="500" windowWidth="28240" windowHeight="16340" xr2:uid="{AB5F43CE-F6A6-6342-9C2C-42983A56E8E8}"/>
   </bookViews>
@@ -44,20 +44,20 @@
     <t>Pandekager</t>
   </si>
   <si>
-    <t>Stegt Flæsk</t>
+    <t>https://1drv.ms/i/s!ArzXHA5LmmgLjOp2dYSapK0bYM3nEA?e=954tRM</t>
   </si>
   <si>
-    <t>https://github.com/moestergaard/PreviewRecipe/raw/5044e01f1c2a93e7feb1453aa11845c6ae4cd15e/Data/pandekager.jpeg</t>
+    <t>Stegt flæsk</t>
   </si>
   <si>
-    <t>https://github.com/moestergaard/PreviewRecipe/blob/5044e01f1c2a93e7feb1453aa11845c6ae4cd15e/Data/stegt-flaesk-med-persillesovs.jpeg</t>
+    <t>https://1drv.ms/i/s!ArzXHA5LmmgLjOp3N5VPqIIdBezCZA?e=gEJwaw</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -69,6 +69,13 @@
       <u/>
       <sz val="12"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -95,9 +102,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -416,7 +424,7 @@
   <dimension ref="A2:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -433,27 +441,28 @@
       <c r="A3">
         <v>124</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>125</v>
       </c>
-      <c r="B4" t="s">
-        <v>1</v>
+      <c r="B4" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" r:id="rId1" xr:uid="{86FF66A1-3DEC-D24B-98AB-E8CEFC9A9A3B}"/>
+    <hyperlink ref="C3" r:id="rId1" xr:uid="{B226AD52-827B-DC48-8603-814B8277EA5D}"/>
+    <hyperlink ref="C4" r:id="rId2" xr:uid="{0D43480D-4130-124B-905E-687FFE60CA47}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Data/test.xlsx
+++ b/Data/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/martinoestergaard/PycharmProjects/PreviewRecipe/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{882056D0-68CF-6B4B-8CF3-4CEA48C01875}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4AD2B87-BBE9-4A46-B5A3-9B892A80E82B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="280" yWindow="500" windowWidth="28240" windowHeight="16340" xr2:uid="{AB5F43CE-F6A6-6342-9C2C-42983A56E8E8}"/>
   </bookViews>
@@ -44,13 +44,13 @@
     <t>Pandekager</t>
   </si>
   <si>
-    <t>https://1drv.ms/i/s!ArzXHA5LmmgLjOp2dYSapK0bYM3nEA?e=954tRM</t>
-  </si>
-  <si>
     <t>Stegt flæsk</t>
   </si>
   <si>
-    <t>https://1drv.ms/i/s!ArzXHA5LmmgLjOp3N5VPqIIdBezCZA?e=gEJwaw</t>
+    <t>https://github.com/moestergaard/Data/blob/a97cbffe93127a13f1b0d4b487fc630768959d2a/pandekager.jpeg</t>
+  </si>
+  <si>
+    <t>https://github.com/moestergaard/Data/blob/a97cbffe93127a13f1b0d4b487fc630768959d2a/stegt-flaesk-med-persillesovs.jpeg</t>
   </si>
 </sst>
 </file>
@@ -424,7 +424,7 @@
   <dimension ref="A2:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -445,7 +445,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -453,17 +453,13 @@
         <v>125</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C3" r:id="rId1" xr:uid="{B226AD52-827B-DC48-8603-814B8277EA5D}"/>
-    <hyperlink ref="C4" r:id="rId2" xr:uid="{0D43480D-4130-124B-905E-687FFE60CA47}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Data/test.xlsx
+++ b/Data/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/martinoestergaard/PycharmProjects/PreviewRecipe/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4AD2B87-BBE9-4A46-B5A3-9B892A80E82B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E7F679F-5F0A-BE43-AFD1-0828D6349CB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="280" yWindow="500" windowWidth="28240" windowHeight="16340" xr2:uid="{AB5F43CE-F6A6-6342-9C2C-42983A56E8E8}"/>
   </bookViews>
@@ -47,10 +47,10 @@
     <t>Stegt flæsk</t>
   </si>
   <si>
-    <t>https://github.com/moestergaard/Data/blob/a97cbffe93127a13f1b0d4b487fc630768959d2a/pandekager.jpeg</t>
+    <t>https://github.com/moestergaard/Data/raw/a97cbffe93127a13f1b0d4b487fc630768959d2a/pandekager.jpeg</t>
   </si>
   <si>
-    <t>https://github.com/moestergaard/Data/blob/a97cbffe93127a13f1b0d4b487fc630768959d2a/stegt-flaesk-med-persillesovs.jpeg</t>
+    <t>https://github.com/moestergaard/Data/raw/a97cbffe93127a13f1b0d4b487fc630768959d2a/stegt-flaesk-med-persillesovs.jpeg</t>
   </si>
 </sst>
 </file>
@@ -424,7 +424,7 @@
   <dimension ref="A2:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -460,6 +460,10 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C3" r:id="rId1" xr:uid="{CA6AC982-C9B8-1D44-8CBA-C7DD89D6B676}"/>
+    <hyperlink ref="C4" r:id="rId2" xr:uid="{2A5E929B-0D56-4948-BD0A-2E3BD63BB39B}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>